--- a/tests/testthat/fixtures/ex3/tables/mv_item.xlsx
+++ b/tests/testthat/fixtures/ex3/tables/mv_item.xlsx
@@ -678,34 +678,34 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E2" t="n">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="F2" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="G2" t="n">
         <v>0.44</v>
       </c>
       <c r="H2" t="n">
-        <v>3.09</v>
+        <v>1.91</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.48</v>
+        <v>5.29</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M2" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N2" t="n">
         <v>2.66</v>
@@ -720,31 +720,31 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.51</v>
+        <v>3.5</v>
       </c>
       <c r="S2" t="n">
         <v>6</v>
       </c>
       <c r="T2" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="U2" t="n">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="V2" t="n">
-        <v>3.39</v>
+        <v>3.4</v>
       </c>
       <c r="W2" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="X2" t="n">
-        <v>2.26</v>
+        <v>2.69</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.34</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="3">
@@ -758,37 +758,37 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E3" t="n">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="F3" t="n">
-        <v>3.09</v>
+        <v>2.94</v>
       </c>
       <c r="G3" t="n">
         <v>1.18</v>
       </c>
       <c r="H3" t="n">
-        <v>6.77</v>
+        <v>4.12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11.05</v>
+        <v>8.24</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M3" t="n">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="N3" t="n">
-        <v>3.51</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.12</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="S3" t="n">
         <v>7</v>
       </c>
       <c r="T3" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="U3" t="n">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="V3" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="W3" t="n">
-        <v>0.71</v>
+        <v>0.85</v>
       </c>
       <c r="X3" t="n">
-        <v>5.51</v>
+        <v>5.52</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.19</v>
+        <v>8.22</v>
       </c>
     </row>
     <row r="4">
@@ -838,34 +838,34 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E4" t="n">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="F4" t="n">
-        <v>3.68</v>
+        <v>3.24</v>
       </c>
       <c r="G4" t="n">
         <v>0.74</v>
       </c>
       <c r="H4" t="n">
-        <v>12.81</v>
+        <v>11.47</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.23</v>
+        <v>15.44</v>
       </c>
       <c r="K4" t="n">
         <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M4" t="n">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="N4" t="n">
         <v>2.52</v>
@@ -874,37 +874,37 @@
         <v>0.7</v>
       </c>
       <c r="P4" t="n">
-        <v>0.42</v>
+        <v>0.28</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="S4" t="n">
         <v>8</v>
       </c>
       <c r="T4" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="U4" t="n">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="V4" t="n">
-        <v>2.97</v>
+        <v>3.26</v>
       </c>
       <c r="W4" t="n">
         <v>0.28</v>
       </c>
       <c r="X4" t="n">
-        <v>10.59</v>
+        <v>11.76</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>13.84</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="5">
@@ -918,73 +918,73 @@
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E5" t="n">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="F5" t="n">
-        <v>2.8</v>
+        <v>3.24</v>
       </c>
       <c r="G5" t="n">
-        <v>0.74</v>
+        <v>0.59</v>
       </c>
       <c r="H5" t="n">
-        <v>25.48</v>
+        <v>21.91</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.01</v>
+        <v>25.74</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M5" t="n">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="N5" t="n">
         <v>1.54</v>
       </c>
       <c r="O5" t="n">
-        <v>1.12</v>
+        <v>1.26</v>
       </c>
       <c r="P5" t="n">
-        <v>0.56</v>
+        <v>0.98</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>3.23</v>
+        <v>3.78</v>
       </c>
       <c r="S5" t="n">
         <v>9</v>
       </c>
       <c r="T5" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="U5" t="n">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="V5" t="n">
-        <v>3.39</v>
+        <v>3.82</v>
       </c>
       <c r="W5" t="n">
-        <v>0.42</v>
+        <v>0.57</v>
       </c>
       <c r="X5" t="n">
-        <v>22.6</v>
+        <v>21.39</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>26.41</v>
+        <v>25.78</v>
       </c>
     </row>
     <row r="6">
@@ -998,73 +998,73 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E6" t="n">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="F6" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="G6" t="n">
-        <v>0.15</v>
+        <v>0.74</v>
       </c>
       <c r="H6" t="n">
-        <v>50.52</v>
+        <v>46.03</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>52.43</v>
+        <v>48.68</v>
       </c>
       <c r="K6" t="n">
         <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M6" t="n">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N6" t="n">
-        <v>4.21</v>
+        <v>4.06</v>
       </c>
       <c r="O6" t="n">
         <v>0.7</v>
       </c>
       <c r="P6" t="n">
-        <v>0.98</v>
+        <v>1.54</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>5.89</v>
+        <v>6.3</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
       </c>
       <c r="T6" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="U6" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="V6" t="n">
-        <v>1.41</v>
+        <v>2.12</v>
       </c>
       <c r="W6" t="n">
-        <v>1.13</v>
+        <v>0.99</v>
       </c>
       <c r="X6" t="n">
-        <v>47.18</v>
+        <v>45.75</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>49.72</v>
+        <v>48.87</v>
       </c>
     </row>
     <row r="7">
@@ -1078,13 +1078,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E7" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F7" t="n">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="G7" t="n">
         <v>1.03</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.39</v>
+        <v>3.38</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
@@ -1126,13 +1126,13 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E8" t="n">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F8" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="G8" t="n">
         <v>0.74</v>
@@ -1174,10 +1174,10 @@
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E9" t="n">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="F9" t="n">
         <v>3.68</v>
@@ -1186,13 +1186,13 @@
         <v>0.88</v>
       </c>
       <c r="H9" t="n">
-        <v>0.88</v>
+        <v>0.29</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5.45</v>
+        <v>4.85</v>
       </c>
       <c r="K9"/>
       <c r="L9"/>
@@ -1222,10 +1222,10 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E10" t="n">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="F10" t="n">
         <v>3.09</v>
@@ -1234,13 +1234,13 @@
         <v>1.03</v>
       </c>
       <c r="H10" t="n">
-        <v>1.18</v>
+        <v>0.59</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5.3</v>
+        <v>4.71</v>
       </c>
       <c r="K10"/>
       <c r="L10"/>
@@ -1270,19 +1270,19 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E11" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F11" t="n">
-        <v>2.21</v>
+        <v>2.35</v>
       </c>
       <c r="G11" t="n">
         <v>1.03</v>
       </c>
       <c r="H11" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1326,25 +1326,25 @@
         <v>6</v>
       </c>
       <c r="L12" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M12" t="n">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="N12" t="n">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="O12" t="n">
         <v>0.42</v>
       </c>
       <c r="P12" t="n">
-        <v>2.66</v>
+        <v>2.1</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>5.89</v>
+        <v>5.32</v>
       </c>
       <c r="S12"/>
       <c r="T12"/>
@@ -1374,25 +1374,25 @@
         <v>7</v>
       </c>
       <c r="L13" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M13" t="n">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="N13" t="n">
-        <v>3.93</v>
+        <v>3.78</v>
       </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>1.12</v>
       </c>
       <c r="P13" t="n">
-        <v>6.03</v>
+        <v>5.04</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.22</v>
+        <v>9.94</v>
       </c>
       <c r="S13"/>
       <c r="T13"/>
@@ -1422,25 +1422,25 @@
         <v>8</v>
       </c>
       <c r="L14" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M14" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N14" t="n">
-        <v>1.82</v>
+        <v>2.24</v>
       </c>
       <c r="O14" t="n">
         <v>0.84</v>
       </c>
       <c r="P14" t="n">
-        <v>10.1</v>
+        <v>9.66</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>12.76</v>
+        <v>12.75</v>
       </c>
       <c r="S14"/>
       <c r="T14"/>
@@ -1470,25 +1470,25 @@
         <v>9</v>
       </c>
       <c r="L15" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M15" t="n">
         <v>567</v>
       </c>
       <c r="N15" t="n">
-        <v>2.81</v>
+        <v>3.22</v>
       </c>
       <c r="O15" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="P15" t="n">
-        <v>17.39</v>
+        <v>16.95</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.48</v>
+        <v>20.59</v>
       </c>
       <c r="S15"/>
       <c r="T15"/>
@@ -1518,25 +1518,25 @@
         <v>10</v>
       </c>
       <c r="L16" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M16" t="n">
         <v>485</v>
       </c>
       <c r="N16" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="O16" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="P16" t="n">
-        <v>29.17</v>
+        <v>29.27</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>31.98</v>
+        <v>32.07</v>
       </c>
       <c r="S16"/>
       <c r="T16"/>
@@ -1566,25 +1566,25 @@
         <v>11</v>
       </c>
       <c r="L17" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M17" t="n">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="N17" t="n">
-        <v>1.54</v>
+        <v>1.26</v>
       </c>
       <c r="O17" t="n">
-        <v>0.28</v>
+        <v>0.56</v>
       </c>
       <c r="P17" t="n">
-        <v>53.58</v>
+        <v>51.12</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.4</v>
+        <v>52.94</v>
       </c>
       <c r="S17"/>
       <c r="T17"/>
@@ -1622,13 +1622,13 @@
         <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="U18" t="n">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="V18" t="n">
-        <v>3.81</v>
+        <v>3.82</v>
       </c>
       <c r="W18" t="n">
         <v>1.13</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>4.94</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="19">
@@ -1670,10 +1670,10 @@
         <v>2</v>
       </c>
       <c r="T19" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="U19" t="n">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="V19" t="n">
         <v>2.97</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>3.95</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="20">
@@ -1718,25 +1718,25 @@
         <v>3</v>
       </c>
       <c r="T20" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="U20" t="n">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="V20" t="n">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="W20" t="n">
         <v>0.42</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>3.67</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="21">
@@ -1766,25 +1766,25 @@
         <v>4</v>
       </c>
       <c r="T21" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="U21" t="n">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="V21" t="n">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="W21" t="n">
         <v>0.71</v>
       </c>
       <c r="X21" t="n">
-        <v>0.14</v>
+        <v>0.85</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>3.53</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="22">
@@ -1814,25 +1814,25 @@
         <v>5</v>
       </c>
       <c r="T22" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="U22" t="n">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="V22" t="n">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="W22" t="n">
         <v>0.42</v>
       </c>
       <c r="X22" t="n">
-        <v>0.56</v>
+        <v>1.27</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>3.53</v>
+        <v>4.25</v>
       </c>
     </row>
   </sheetData>
@@ -1883,7 +1883,7 @@
         <v>2100</v>
       </c>
       <c r="E2" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F2" t="n">
         <v>2100</v>
@@ -1894,16 +1894,16 @@
         <v>74</v>
       </c>
       <c r="B3" t="n">
-        <v>1704.91</v>
+        <v>1714.45</v>
       </c>
       <c r="C3" t="n">
-        <v>530.34</v>
+        <v>522.85</v>
       </c>
       <c r="D3" t="n">
-        <v>1962</v>
+        <v>1972</v>
       </c>
       <c r="E3" t="n">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="F3" t="n">
         <v>2017</v>
@@ -1914,19 +1914,19 @@
         <v>75</v>
       </c>
       <c r="B4" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="C4" t="n">
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="E4" t="n">
-        <v>1.54</v>
+        <v>1.26</v>
       </c>
       <c r="F4" t="n">
-        <v>3.14</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="5">
@@ -1934,16 +1934,16 @@
         <v>76</v>
       </c>
       <c r="B5" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="C5" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="D5" t="n">
         <v>0.71</v>
       </c>
       <c r="E5" t="n">
-        <v>0.28</v>
+        <v>0.52</v>
       </c>
       <c r="F5" t="n">
         <v>1.05</v>
@@ -1954,19 +1954,19 @@
         <v>77</v>
       </c>
       <c r="B6" t="n">
-        <v>12.68</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>18.77</v>
+        <v>17.9</v>
       </c>
       <c r="D6" t="n">
-        <v>2.67</v>
+        <v>2.24</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>53.58</v>
+        <v>51.12</v>
       </c>
     </row>
     <row r="7">
@@ -1994,19 +1994,19 @@
         <v>79</v>
       </c>
       <c r="B8" t="n">
-        <v>16.14</v>
+        <v>15.54</v>
       </c>
       <c r="C8" t="n">
-        <v>18.1</v>
+        <v>17.32</v>
       </c>
       <c r="D8" t="n">
-        <v>6.57</v>
+        <v>6.1</v>
       </c>
       <c r="E8" t="n">
         <v>3.95</v>
       </c>
       <c r="F8" t="n">
-        <v>55.4</v>
+        <v>52.94</v>
       </c>
     </row>
   </sheetData>
@@ -2048,19 +2048,19 @@
         <v>73</v>
       </c>
       <c r="B2" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E2" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F2" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3">
@@ -2068,19 +2068,19 @@
         <v>74</v>
       </c>
       <c r="B3" t="n">
-        <v>584.8</v>
+        <v>595.2</v>
       </c>
       <c r="C3" t="n">
-        <v>106.93</v>
+        <v>98.9</v>
       </c>
       <c r="D3" t="n">
-        <v>638.5</v>
+        <v>645.5</v>
       </c>
       <c r="E3" t="n">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="F3" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4">
@@ -2088,16 +2088,16 @@
         <v>75</v>
       </c>
       <c r="B4" t="n">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="C4" t="n">
-        <v>0.61</v>
+        <v>0.52</v>
       </c>
       <c r="D4" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="E4" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="F4" t="n">
         <v>3.68</v>
@@ -2108,16 +2108,16 @@
         <v>76</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="C5" t="n">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="D5" t="n">
         <v>0.81</v>
       </c>
       <c r="E5" t="n">
-        <v>0.15</v>
+        <v>0.44</v>
       </c>
       <c r="F5" t="n">
         <v>1.18</v>
@@ -2128,19 +2128,19 @@
         <v>77</v>
       </c>
       <c r="B6" t="n">
-        <v>10.22</v>
+        <v>8.76</v>
       </c>
       <c r="C6" t="n">
-        <v>16.26</v>
+        <v>14.85</v>
       </c>
       <c r="D6" t="n">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>50.52</v>
+        <v>46.03</v>
       </c>
     </row>
     <row r="7">
@@ -2168,19 +2168,19 @@
         <v>79</v>
       </c>
       <c r="B8" t="n">
-        <v>13.87</v>
+        <v>12.47</v>
       </c>
       <c r="C8" t="n">
-        <v>15.75</v>
+        <v>14.54</v>
       </c>
       <c r="D8" t="n">
-        <v>5.96</v>
+        <v>5.07</v>
       </c>
       <c r="E8" t="n">
-        <v>3.39</v>
+        <v>3.38</v>
       </c>
       <c r="F8" t="n">
-        <v>52.43</v>
+        <v>48.68</v>
       </c>
     </row>
   </sheetData>
@@ -2222,19 +2222,19 @@
         <v>73</v>
       </c>
       <c r="B2" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E2" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F2" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="3">
@@ -2242,19 +2242,19 @@
         <v>74</v>
       </c>
       <c r="B3" t="n">
-        <v>610.18</v>
+        <v>613.18</v>
       </c>
       <c r="C3" t="n">
-        <v>115.83</v>
+        <v>111.8</v>
       </c>
       <c r="D3" t="n">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E3" t="n">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="F3" t="n">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4">
@@ -2265,16 +2265,16 @@
         <v>2.72</v>
       </c>
       <c r="C4" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="D4" t="n">
         <v>2.66</v>
       </c>
       <c r="E4" t="n">
-        <v>1.54</v>
+        <v>1.26</v>
       </c>
       <c r="F4" t="n">
-        <v>4.21</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="5">
@@ -2282,16 +2282,16 @@
         <v>76</v>
       </c>
       <c r="B5" t="n">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="C5" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="D5" t="n">
         <v>0.7</v>
       </c>
       <c r="E5" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="F5" t="n">
         <v>1.26</v>
@@ -2302,19 +2302,19 @@
         <v>77</v>
       </c>
       <c r="B6" t="n">
-        <v>10.99</v>
+        <v>10.63</v>
       </c>
       <c r="C6" t="n">
-        <v>16.86</v>
+        <v>16.25</v>
       </c>
       <c r="D6" t="n">
-        <v>2.66</v>
+        <v>2.1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>53.58</v>
+        <v>51.12</v>
       </c>
     </row>
     <row r="7">
@@ -2342,19 +2342,19 @@
         <v>79</v>
       </c>
       <c r="B8" t="n">
-        <v>14.42</v>
+        <v>14.12</v>
       </c>
       <c r="C8" t="n">
-        <v>16.25</v>
+        <v>15.66</v>
       </c>
       <c r="D8" t="n">
-        <v>5.89</v>
+        <v>6.3</v>
       </c>
       <c r="E8" t="n">
-        <v>3.23</v>
+        <v>3.5</v>
       </c>
       <c r="F8" t="n">
-        <v>55.4</v>
+        <v>52.94</v>
       </c>
     </row>
   </sheetData>
@@ -2396,19 +2396,19 @@
         <v>73</v>
       </c>
       <c r="B2" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E2" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F2" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="3">
@@ -2416,19 +2416,19 @@
         <v>74</v>
       </c>
       <c r="B3" t="n">
-        <v>619.4</v>
+        <v>616.2</v>
       </c>
       <c r="C3" t="n">
-        <v>105.4</v>
+        <v>102.22</v>
       </c>
       <c r="D3" t="n">
-        <v>664.5</v>
+        <v>661.5</v>
       </c>
       <c r="E3" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F3" t="n">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4">
@@ -2436,19 +2436,19 @@
         <v>75</v>
       </c>
       <c r="B4" t="n">
-        <v>2.84</v>
+        <v>2.97</v>
       </c>
       <c r="C4" t="n">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="D4" t="n">
-        <v>2.97</v>
+        <v>3.12</v>
       </c>
       <c r="E4" t="n">
-        <v>1.41</v>
+        <v>1.84</v>
       </c>
       <c r="F4" t="n">
-        <v>3.81</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="5">
@@ -2459,16 +2459,16 @@
         <v>0.79</v>
       </c>
       <c r="C5" t="n">
-        <v>0.44</v>
+        <v>0.39</v>
       </c>
       <c r="D5" t="n">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="E5" t="n">
         <v>0.28</v>
       </c>
       <c r="F5" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="6">
@@ -2476,19 +2476,19 @@
         <v>77</v>
       </c>
       <c r="B6" t="n">
-        <v>8.88</v>
+        <v>8.95</v>
       </c>
       <c r="C6" t="n">
-        <v>15.26</v>
+        <v>14.64</v>
       </c>
       <c r="D6" t="n">
-        <v>1.41</v>
+        <v>1.98</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>47.18</v>
+        <v>45.75</v>
       </c>
     </row>
     <row r="7">
@@ -2516,19 +2516,19 @@
         <v>79</v>
       </c>
       <c r="B8" t="n">
-        <v>12.51</v>
+        <v>12.72</v>
       </c>
       <c r="C8" t="n">
-        <v>14.89</v>
+        <v>14.48</v>
       </c>
       <c r="D8" t="n">
-        <v>6.14</v>
+        <v>6.3</v>
       </c>
       <c r="E8" t="n">
-        <v>3.53</v>
+        <v>3.97</v>
       </c>
       <c r="F8" t="n">
-        <v>49.72</v>
+        <v>48.87</v>
       </c>
     </row>
   </sheetData>
